--- a/V4-ASDE Training 60 Days TOC and Project.xlsx
+++ b/V4-ASDE Training 60 Days TOC and Project.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sapient\Requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sapient\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65F6821-B705-44CF-91DD-E078E117DCBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189B0F8B-10FD-474C-8160-857723714B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{D7093CB6-88B4-4561-83B9-22029FC48322}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D7093CB6-88B4-4561-83B9-22029FC48322}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
     <sheet name="TOC" sheetId="1" r:id="rId2"/>
-    <sheet name="Participants" sheetId="3" r:id="rId3"/>
-    <sheet name="Pre Teams" sheetId="4" r:id="rId4"/>
-    <sheet name="Tech" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Participants" sheetId="3" r:id="rId4"/>
+    <sheet name="Pre Teams" sheetId="4" r:id="rId5"/>
+    <sheet name="Tech" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="270">
   <si>
     <t>Module</t>
   </si>
@@ -807,6 +808,39 @@
   </si>
   <si>
     <t>https://dev.mysql.com/downloads/installer/</t>
+  </si>
+  <si>
+    <t>Reverse KT</t>
+  </si>
+  <si>
+    <t>Noel (MongoDB)</t>
+  </si>
+  <si>
+    <t>Sachin (Java - Collection)</t>
+  </si>
+  <si>
+    <t>Vinayak (RDBMS)</t>
+  </si>
+  <si>
+    <t>Hands-on</t>
+  </si>
+  <si>
+    <t>Sathiya</t>
+  </si>
+  <si>
+    <t>Mukul (KT - Java 8 Features)</t>
+  </si>
+  <si>
+    <t>Vinay (Java 11 &amp; 17)</t>
+  </si>
+  <si>
+    <t>Niharika (TDD, Mockito, NFR)</t>
+  </si>
+  <si>
+    <t>Prasanth (SOLID, Lombok)</t>
+  </si>
+  <si>
+    <t>Rohit</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1369,7 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1397,9 +1431,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1453,98 +1484,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -1602,26 +1541,124 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="11" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="11" fillId="16" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{CD13CC36-6C53-423E-9D32-ED7E52E90EF2}"/>
@@ -1960,8 +1997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD61795-4622-4856-9C81-C7BD949BA700}">
   <dimension ref="A3:JF23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2107,14 +2144,14 @@
       </c>
     </row>
     <row r="20" spans="1:266" x14ac:dyDescent="0.3">
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="35">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:266" s="39" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:266" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21" s="4" t="s">
@@ -2387,10 +2424,10 @@
       <c r="JF21"/>
     </row>
     <row r="22" spans="1:266" x14ac:dyDescent="0.3">
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="37">
         <v>35</v>
       </c>
     </row>
@@ -2410,10 +2447,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EF4AEB-0542-4396-960E-14BF9B3C12CD}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="123" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:E8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2423,64 +2460,65 @@
     <col min="5" max="5" width="39" customWidth="1"/>
     <col min="6" max="6" width="24.44140625" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="8" max="8" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.3">
+      <c r="A1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="81" t="s">
         <v>125</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="61" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-    </row>
-    <row r="4" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+    </row>
+    <row r="4" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="64" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="65"/>
-    </row>
-    <row r="6" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="85"/>
+    </row>
+    <row r="6" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2490,84 +2528,98 @@
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="88"/>
+      <c r="F6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="110" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H6" s="112" t="s">
+        <v>259</v>
+      </c>
+      <c r="I6" s="112" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="69" t="s">
+      <c r="E7" s="78"/>
+      <c r="F7" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="111" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8">
         <v>2</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="48" t="s">
+      <c r="B8" s="86"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="43"/>
-    </row>
-    <row r="9" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="78"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8">
         <v>3</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="48"/>
-      <c r="F9" s="69" t="s">
+      <c r="E9" s="78"/>
+      <c r="F9" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="43"/>
-    </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="111"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8">
         <v>4</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="53" t="s">
+      <c r="B10" s="77"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="53"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="43"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
         <v>5</v>
       </c>
@@ -2577,16 +2629,18 @@
       <c r="C11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="29" t="s">
+      <c r="E11" s="78"/>
+      <c r="F11" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="43"/>
-    </row>
-    <row r="12" spans="1:7" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="111"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+    </row>
+    <row r="12" spans="1:9" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8">
         <v>6</v>
       </c>
@@ -2596,16 +2650,20 @@
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="53" t="s">
+      <c r="D12" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="53"/>
-      <c r="F12" s="29" t="s">
+      <c r="E12" s="89"/>
+      <c r="F12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="43"/>
-    </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G12" s="111"/>
+      <c r="H12" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="I12" s="40"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="8">
         <v>7</v>
       </c>
@@ -2615,16 +2673,20 @@
       <c r="C13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="30" t="s">
+      <c r="E13" s="94"/>
+      <c r="F13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="43"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="111"/>
+      <c r="H13" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="I13" s="40"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>8</v>
       </c>
@@ -2634,18 +2696,22 @@
       <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="52" t="s">
+      <c r="D14" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="31" t="s">
+      <c r="E14" s="91"/>
+      <c r="F14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="111" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="I14" s="40"/>
+    </row>
+    <row r="15" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>9</v>
       </c>
@@ -2655,16 +2721,22 @@
       <c r="C15" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="54"/>
-      <c r="F15" s="31" t="s">
+      <c r="E15" s="92"/>
+      <c r="F15" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="43"/>
-    </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G15" s="111"/>
+      <c r="H15" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="I15" s="40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>10</v>
       </c>
@@ -2674,16 +2746,22 @@
       <c r="C16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="54"/>
-      <c r="F16" s="31" t="s">
+      <c r="E16" s="92"/>
+      <c r="F16" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G16" s="111"/>
+      <c r="H16" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>11</v>
       </c>
@@ -2693,16 +2771,22 @@
       <c r="C17" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="31" t="s">
+      <c r="E17" s="91"/>
+      <c r="F17" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="43"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="111"/>
+      <c r="H17" s="40" t="s">
+        <v>267</v>
+      </c>
+      <c r="I17" s="40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -2712,16 +2796,22 @@
       <c r="C18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="31" t="s">
+      <c r="E18" s="91"/>
+      <c r="F18" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="43"/>
-    </row>
-    <row r="19" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="111"/>
+      <c r="H18" s="40" t="s">
+        <v>268</v>
+      </c>
+      <c r="I18" s="40" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>13</v>
       </c>
@@ -2731,18 +2821,20 @@
       <c r="C19" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="32" t="s">
+      <c r="E19" s="93"/>
+      <c r="F19" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="111" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+    </row>
+    <row r="20" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>14</v>
       </c>
@@ -2752,16 +2844,18 @@
       <c r="C20" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="29" t="s">
+      <c r="E20" s="78"/>
+      <c r="F20" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="43"/>
-    </row>
-    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G20" s="111"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>15</v>
       </c>
@@ -2771,16 +2865,18 @@
       <c r="C21" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="48" t="s">
+      <c r="D21" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="29" t="s">
+      <c r="E21" s="78"/>
+      <c r="F21" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="43"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G21" s="111"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>16</v>
       </c>
@@ -2790,16 +2886,18 @@
       <c r="C22" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="53"/>
-      <c r="F22" s="29" t="s">
+      <c r="E22" s="89"/>
+      <c r="F22" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G22" s="43"/>
-    </row>
-    <row r="23" spans="1:7" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="111"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>17</v>
       </c>
@@ -2809,16 +2907,18 @@
       <c r="C23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="53"/>
-      <c r="F23" s="29" t="s">
+      <c r="E23" s="89"/>
+      <c r="F23" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="43"/>
-    </row>
-    <row r="24" spans="1:7" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="111"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>18</v>
       </c>
@@ -2828,18 +2928,20 @@
       <c r="C24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="45"/>
-      <c r="F24" s="29" t="s">
+      <c r="E24" s="96"/>
+      <c r="F24" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="111" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+    </row>
+    <row r="25" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>19</v>
       </c>
@@ -2849,16 +2951,18 @@
       <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="46" t="s">
+      <c r="D25" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="29" t="s">
+      <c r="E25" s="98"/>
+      <c r="F25" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G25" s="43"/>
-    </row>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G25" s="111"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>20</v>
       </c>
@@ -2868,75 +2972,83 @@
       <c r="C26" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="48" t="s">
+      <c r="D26" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="29" t="s">
+      <c r="E26" s="78"/>
+      <c r="F26" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="43"/>
-    </row>
-    <row r="27" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G26" s="111"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+    </row>
+    <row r="27" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>21</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="24" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="29" t="s">
+      <c r="E27" s="100"/>
+      <c r="F27" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="43"/>
-    </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G27" s="111"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A28" s="16">
         <v>22</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="51" t="s">
+      <c r="D28" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="52"/>
-      <c r="F28" s="33" t="s">
+      <c r="E28" s="91"/>
+      <c r="F28" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="43"/>
-    </row>
-    <row r="29" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="26">
+      <c r="G28" s="111"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+    </row>
+    <row r="29" spans="1:9" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25">
         <v>23</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="72" t="s">
+      <c r="D29" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="33" t="s">
+      <c r="E29" s="74"/>
+      <c r="F29" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G29" s="43" t="s">
+      <c r="G29" s="111" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+    </row>
+    <row r="30" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>24</v>
       </c>
@@ -2946,16 +3058,18 @@
       <c r="C30" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="71"/>
-      <c r="F30" s="29" t="s">
+      <c r="E30" s="72"/>
+      <c r="F30" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G30" s="43"/>
-    </row>
-    <row r="31" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="111"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+    </row>
+    <row r="31" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="16">
         <v>25</v>
       </c>
@@ -2965,17 +3079,19 @@
       <c r="C31" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D31" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="71"/>
-      <c r="F31" s="33" t="s">
+      <c r="E31" s="72"/>
+      <c r="F31" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="43"/>
-    </row>
-    <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
+      <c r="G31" s="111"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+    </row>
+    <row r="32" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25">
         <v>26</v>
       </c>
       <c r="B32" s="7" t="s">
@@ -2984,16 +3100,18 @@
       <c r="C32" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="29" t="s">
+      <c r="E32" s="72"/>
+      <c r="F32" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="43"/>
-    </row>
-    <row r="33" spans="1:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="111"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+    </row>
+    <row r="33" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>27</v>
       </c>
@@ -3003,241 +3121,243 @@
       <c r="C33" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="71" t="s">
+      <c r="D33" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="29" t="s">
+      <c r="E33" s="72"/>
+      <c r="F33" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G33" s="43"/>
-    </row>
-    <row r="34" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G33" s="111"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>28</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="70" t="s">
+      <c r="D34" s="103"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="75" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>29</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="70"/>
-    </row>
-    <row r="36" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D35" s="103"/>
+      <c r="E35" s="104"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="75"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>30</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="70"/>
-    </row>
-    <row r="37" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D36" s="103"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="75"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>31</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="70"/>
-    </row>
-    <row r="38" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D37" s="103"/>
+      <c r="E37" s="104"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="75"/>
+    </row>
+    <row r="38" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>32</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="41"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="70"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D38" s="103"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="75"/>
+    </row>
+    <row r="39" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>33</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="41"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="70"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D39" s="103"/>
+      <c r="E39" s="104"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="75"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>34</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D40" s="41"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="70"/>
-    </row>
-    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D40" s="103"/>
+      <c r="E40" s="104"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="75"/>
+    </row>
+    <row r="41" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>35</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="70"/>
-    </row>
-    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D41" s="103"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="75"/>
+    </row>
+    <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>36</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D42" s="41"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="70"/>
-    </row>
-    <row r="43" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D42" s="103"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="75"/>
+    </row>
+    <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>37</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="41"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="70"/>
-    </row>
-    <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D43" s="103"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="75"/>
+    </row>
+    <row r="44" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>38</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="70"/>
-    </row>
-    <row r="45" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D44" s="103"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="75"/>
+    </row>
+    <row r="45" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>39</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="70"/>
-    </row>
-    <row r="46" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D45" s="103"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="75"/>
+    </row>
+    <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>40</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="41"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="70"/>
-    </row>
-    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D46" s="103"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="75"/>
+    </row>
+    <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>41</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="70"/>
-    </row>
-    <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="D47" s="103"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="75"/>
+    </row>
+    <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>42</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="70"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="75"/>
     </row>
     <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
@@ -3246,13 +3366,13 @@
       <c r="B49" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="70"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="75"/>
     </row>
     <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
@@ -3261,13 +3381,13 @@
       <c r="B50" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D50" s="41"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="70"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="75"/>
     </row>
     <row r="51" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
@@ -3276,13 +3396,13 @@
       <c r="B51" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="41"/>
-      <c r="E51" s="42"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="70"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="104"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="75"/>
     </row>
     <row r="52" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
@@ -3291,13 +3411,13 @@
       <c r="B52" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D52" s="41"/>
-      <c r="E52" s="42"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="70"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="75"/>
     </row>
     <row r="53" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
@@ -3306,13 +3426,13 @@
       <c r="B53" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D53" s="41"/>
-      <c r="E53" s="42"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="70"/>
+      <c r="D53" s="103"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="75"/>
     </row>
     <row r="54" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
@@ -3321,13 +3441,13 @@
       <c r="B54" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="41"/>
-      <c r="E54" s="42"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="70"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="104"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="75"/>
     </row>
     <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
@@ -3336,13 +3456,13 @@
       <c r="B55" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D55" s="41"/>
-      <c r="E55" s="42"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="70"/>
+      <c r="D55" s="103"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="75"/>
     </row>
     <row r="56" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
@@ -3351,13 +3471,13 @@
       <c r="B56" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="42"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="70"/>
+      <c r="D56" s="103"/>
+      <c r="E56" s="104"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="75"/>
     </row>
     <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
@@ -3366,13 +3486,13 @@
       <c r="B57" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="41"/>
-      <c r="E57" s="42"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="70"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="104"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="75"/>
     </row>
     <row r="58" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
@@ -3381,13 +3501,13 @@
       <c r="B58" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="42"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="70"/>
+      <c r="D58" s="103"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="75"/>
     </row>
     <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
@@ -3396,13 +3516,13 @@
       <c r="B59" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="42"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="70"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="75"/>
     </row>
     <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
@@ -3411,13 +3531,13 @@
       <c r="B60" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D60" s="41"/>
-      <c r="E60" s="42"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="70"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="75"/>
     </row>
     <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
@@ -3426,13 +3546,13 @@
       <c r="B61" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="40" t="s">
+      <c r="C61" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="34"/>
-      <c r="G61" s="70"/>
+      <c r="D61" s="103"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="33"/>
+      <c r="G61" s="75"/>
     </row>
     <row r="62" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
@@ -3441,13 +3561,13 @@
       <c r="B62" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="34"/>
-      <c r="G62" s="70"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="75"/>
     </row>
     <row r="63" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
@@ -3456,13 +3576,13 @@
       <c r="B63" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="42"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="70"/>
+      <c r="D63" s="103"/>
+      <c r="E63" s="104"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="75"/>
     </row>
     <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
@@ -3471,13 +3591,13 @@
       <c r="B64" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="42"/>
-      <c r="F64" s="34"/>
-      <c r="G64" s="70"/>
+      <c r="D64" s="103"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="33"/>
+      <c r="G64" s="75"/>
     </row>
     <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
@@ -3486,13 +3606,13 @@
       <c r="B65" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="34"/>
-      <c r="G65" s="70"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="75"/>
     </row>
     <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
@@ -3501,13 +3621,13 @@
       <c r="B66" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="42"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="70"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="104"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="75"/>
     </row>
     <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
@@ -3516,13 +3636,13 @@
       <c r="B67" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="41"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="70"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="104"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="75"/>
     </row>
     <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
@@ -3531,28 +3651,72 @@
       <c r="B68" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="40" t="s">
+      <c r="C68" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="41"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="70"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="75"/>
     </row>
     <row r="69" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
     <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G34:G68"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="G19:G23"/>
-    <mergeCell ref="G24:G28"/>
-    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="G7:G13"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="D7:E7"/>
@@ -3569,60 +3733,16 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="G7:G13"/>
-    <mergeCell ref="C63:E63"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="G34:G68"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="G19:G23"/>
+    <mergeCell ref="G24:G28"/>
+    <mergeCell ref="G29:G33"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3630,340 +3750,410 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43916B13-BD88-4D2F-802B-A972C58C5FFF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3168F0A9-F03F-4DCB-9E3B-61F39059DAEE}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="C1" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="D1" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="74" t="s">
+      <c r="E1" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="74" t="s">
+      <c r="F1" s="39" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>134</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>135</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>137</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>140</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>137</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>142</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>135</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>140</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>143</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>144</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>135</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>145</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>137</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>146</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>135</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>147</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>137</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>148</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>135</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>140</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>137</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>149</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>135</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>150</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>137</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>151</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>135</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>152</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>137</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>153</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>135</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>147</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>137</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>155</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>135</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>150</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>137</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>156</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>157</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>140</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>137</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>158</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>135</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>159</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>137</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>160</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>135</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>140</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>137</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>161</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>135</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>162</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>143</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>163</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>135</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>150</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>137</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>164</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>135</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>165</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>137</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>166</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>135</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>167</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>137</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>168</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>135</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>162</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>137</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3972,7 +4162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{810E1478-2997-4817-851C-0F3EE8D7E3D5}">
   <dimension ref="A3:L21"/>
   <sheetViews>
@@ -3990,340 +4180,340 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="110" t="s">
+      <c r="B3" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="110" t="s">
+      <c r="C3" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="111">
+      <c r="D3" s="71">
         <v>45209</v>
       </c>
-      <c r="E3" s="111">
+      <c r="E3" s="71">
         <v>45210</v>
       </c>
-      <c r="F3" s="111">
+      <c r="F3" s="71">
         <v>45211</v>
       </c>
-      <c r="G3" s="111">
+      <c r="G3" s="71">
         <v>45212</v>
       </c>
-      <c r="H3" s="111">
+      <c r="H3" s="71">
         <v>45215</v>
       </c>
-      <c r="I3" s="111">
+      <c r="I3" s="71">
         <v>45216</v>
       </c>
-      <c r="J3" s="111">
+      <c r="J3" s="71">
         <v>45217</v>
       </c>
-      <c r="K3" s="111">
+      <c r="K3" s="71">
         <v>45218</v>
       </c>
-      <c r="L3" s="111">
+      <c r="L3" s="71">
         <v>45219</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="102" t="s">
+      <c r="A4" s="107" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="64" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="102"/>
-      <c r="D4" s="99"/>
-      <c r="E4" s="99"/>
-      <c r="F4" s="99"/>
-      <c r="G4" s="99"/>
-      <c r="H4" s="99"/>
-      <c r="I4" s="99"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="102"/>
-      <c r="B5" s="99" t="s">
+      <c r="A5" s="107"/>
+      <c r="B5" s="64" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
-      <c r="L5" s="99"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="102"/>
-      <c r="B6" s="99" t="s">
+      <c r="A6" s="107"/>
+      <c r="B6" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="99"/>
-      <c r="H6" s="99"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="99"/>
-      <c r="K6" s="99"/>
-      <c r="L6" s="99"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="64"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="102"/>
-      <c r="B7" s="99" t="s">
+      <c r="A7" s="107"/>
+      <c r="B7" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="99"/>
-      <c r="H7" s="99"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="99"/>
-      <c r="K7" s="99"/>
-      <c r="L7" s="99"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="103" t="s">
+      <c r="A8" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="104"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="103"/>
-      <c r="B9" s="104" t="s">
+      <c r="A9" s="108"/>
+      <c r="B9" s="67" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="103"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="103"/>
-      <c r="B10" s="104" t="s">
+      <c r="A10" s="108"/>
+      <c r="B10" s="67" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="103"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="104"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="104"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="103"/>
-      <c r="B11" s="104" t="s">
+      <c r="A11" s="108"/>
+      <c r="B11" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="104"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="105" t="s">
+      <c r="A12" s="109" t="s">
         <v>182</v>
       </c>
-      <c r="B12" s="106" t="s">
+      <c r="B12" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="106"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="105"/>
-      <c r="B13" s="106" t="s">
+      <c r="A13" s="109"/>
+      <c r="B13" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="106"/>
-      <c r="L13" s="106"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="105"/>
-      <c r="B14" s="106" t="s">
+      <c r="A14" s="109"/>
+      <c r="B14" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="105" t="s">
         <v>186</v>
       </c>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="C15" s="107"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
-      <c r="I15" s="108"/>
-      <c r="J15" s="108"/>
-      <c r="K15" s="108"/>
-      <c r="L15" s="108"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="107"/>
-      <c r="B16" s="108" t="s">
+      <c r="A16" s="105"/>
+      <c r="B16" s="69" t="s">
         <v>188</v>
       </c>
-      <c r="C16" s="107"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108"/>
-      <c r="I16" s="108"/>
-      <c r="J16" s="108"/>
-      <c r="K16" s="108"/>
-      <c r="L16" s="108"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="107"/>
-      <c r="B17" s="108" t="s">
+      <c r="A17" s="105"/>
+      <c r="B17" s="69" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="107"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="108"/>
-      <c r="K17" s="108"/>
-      <c r="L17" s="108"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="106" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="60" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="109"/>
-      <c r="B19" s="95" t="s">
+      <c r="A19" s="106"/>
+      <c r="B19" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="C19" s="109"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
+      <c r="C19" s="106"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="109"/>
-      <c r="B20" s="95" t="s">
+      <c r="A20" s="106"/>
+      <c r="B20" s="60" t="s">
         <v>193</v>
       </c>
-      <c r="C20" s="109"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
+      <c r="C20" s="106"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="109"/>
-      <c r="B21" s="95" t="s">
+      <c r="A21" s="106"/>
+      <c r="B21" s="60" t="s">
         <v>194</v>
       </c>
-      <c r="C21" s="109"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -4342,11 +4532,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0556495F-6BCE-4F41-95DC-BD674A811C6D}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -4354,7 +4544,7 @@
   <cols>
     <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="92.33203125" style="89" customWidth="1"/>
+    <col min="3" max="3" width="92.33203125" style="54" customWidth="1"/>
     <col min="4" max="4" width="54.33203125" customWidth="1"/>
     <col min="5" max="5" width="47.88671875" customWidth="1"/>
     <col min="6" max="6" width="20.21875" customWidth="1"/>
@@ -4363,488 +4553,488 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="76"/>
-      <c r="B1" s="77" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="77" t="s">
+      <c r="E1" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="77" t="s">
+      <c r="G1" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="79"/>
-      <c r="B3" s="78" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="50" t="s">
         <v>202</v>
       </c>
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="44" t="s">
         <v>221</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="44" t="s">
         <v>222</v>
       </c>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="44" t="s">
         <v>223</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="78"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="80" t="s">
+      <c r="B6" s="45" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="81"/>
-      <c r="B7" s="80" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
-      <c r="B8" s="80" t="s">
+      <c r="A8" s="46"/>
+      <c r="B8" s="45" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="51" t="s">
         <v>212</v>
       </c>
-      <c r="D8" s="81" t="s">
+      <c r="D8" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="81"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="46"/>
+      <c r="B9" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="D9" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80" t="s">
+      <c r="A10" s="45"/>
+      <c r="B10" s="45" t="s">
         <v>214</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="D10" s="81" t="s">
+      <c r="D10" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
       <c r="H10" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="82"/>
-      <c r="B11" s="80" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="45" t="s">
         <v>217</v>
       </c>
-      <c r="C11" s="87" t="s">
+      <c r="C11" s="52" t="s">
         <v>220</v>
       </c>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
+      <c r="A12" s="47"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="58" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="90"/>
-      <c r="B14" s="91" t="s">
+      <c r="A14" s="55"/>
+      <c r="B14" s="56" t="s">
         <v>233</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="90"/>
-      <c r="B15" s="91" t="s">
+      <c r="A15" s="55"/>
+      <c r="B15" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="57" t="s">
         <v>236</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="90"/>
-      <c r="B16" s="91" t="s">
+      <c r="A16" s="55"/>
+      <c r="B16" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="90"/>
-      <c r="B17" s="91" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="56" t="s">
         <v>237</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="90"/>
-      <c r="B18" s="91" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="56" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="57" t="s">
         <v>241</v>
       </c>
-      <c r="D18" s="90" t="s">
+      <c r="D18" s="55" t="s">
         <v>246</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="90"/>
-      <c r="B19" s="91" t="s">
+      <c r="A19" s="55"/>
+      <c r="B19" s="56" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="94" t="s">
+      <c r="C19" s="59" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="90"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="94"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
     </row>
     <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="60" t="s">
         <v>247</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="61" t="s">
         <v>248</v>
       </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
     </row>
     <row r="22" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="95"/>
-      <c r="B22" s="96" t="s">
+      <c r="A22" s="60"/>
+      <c r="B22" s="61" t="s">
         <v>249</v>
       </c>
-      <c r="C22" s="97"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="95"/>
-      <c r="B23" s="96" t="s">
+      <c r="A23" s="60"/>
+      <c r="B23" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
     </row>
     <row r="24" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="95"/>
-      <c r="B24" s="96" t="s">
+      <c r="A24" s="60"/>
+      <c r="B24" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="63" t="s">
         <v>258</v>
       </c>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="95"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="95"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="95"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
     </row>
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="99" t="s">
+      <c r="A26" s="64" t="s">
         <v>251</v>
       </c>
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
     </row>
     <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="99"/>
-      <c r="B27" s="100" t="s">
+      <c r="A27" s="64"/>
+      <c r="B27" s="65" t="s">
         <v>253</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="99"/>
-      <c r="B28" s="100" t="s">
+      <c r="A28" s="64"/>
+      <c r="B28" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="C28" s="101"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="99"/>
-      <c r="B29" s="100" t="s">
+      <c r="A29" s="64"/>
+      <c r="B29" s="65" t="s">
         <v>255</v>
       </c>
-      <c r="C29" s="101"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="64"/>
     </row>
     <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="99"/>
-      <c r="B30" s="100" t="s">
+      <c r="A30" s="64"/>
+      <c r="B30" s="65" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="101"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="99"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
-      <c r="G32" s="75"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="75"/>
-      <c r="G33" s="75"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="75"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="75"/>
-      <c r="G34" s="75"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="75"/>
-      <c r="E35" s="75"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
+      <c r="G35" s="40"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="75"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="75"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="75"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="75"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4868,18 +5058,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5033,18 +5223,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51A79062-FD89-4B54-A684-2B126AE3B497}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC4C2726-B0F4-4139-9306-DE45EB9D6E38}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC4C2726-B0F4-4139-9306-DE45EB9D6E38}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51A79062-FD89-4B54-A684-2B126AE3B497}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
